--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.43366081959979</v>
+        <v>1.558708666666667</v>
       </c>
       <c r="N2">
-        <v>1.43366081959979</v>
+        <v>4.676126</v>
       </c>
       <c r="O2">
-        <v>0.3816812189940141</v>
+        <v>0.3590038617594454</v>
       </c>
       <c r="P2">
-        <v>0.3816812189940141</v>
+        <v>0.3716334638810379</v>
       </c>
       <c r="Q2">
-        <v>197.6891642184849</v>
+        <v>236.4967428661211</v>
       </c>
       <c r="R2">
-        <v>197.6891642184849</v>
+        <v>2128.47068579509</v>
       </c>
       <c r="S2">
-        <v>0.09984475645123556</v>
+        <v>0.0969575895373327</v>
       </c>
       <c r="T2">
-        <v>0.09984475645123556</v>
+        <v>0.1034392133148602</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.90530413902547</v>
+        <v>2.177429</v>
       </c>
       <c r="N3">
-        <v>1.90530413902547</v>
+        <v>6.532287</v>
       </c>
       <c r="O3">
-        <v>0.5072460629429678</v>
+        <v>0.5015083552327337</v>
       </c>
       <c r="P3">
-        <v>0.5072460629429678</v>
+        <v>0.5191512044104615</v>
       </c>
       <c r="Q3">
-        <v>262.7246121792672</v>
+        <v>330.3727485030784</v>
       </c>
       <c r="R3">
-        <v>262.7246121792672</v>
+        <v>2973.354736527705</v>
       </c>
       <c r="S3">
-        <v>0.1326915161004634</v>
+        <v>0.1354443403975972</v>
       </c>
       <c r="T3">
-        <v>0.1326915161004634</v>
+        <v>0.1444988070096675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.417208382516459</v>
+        <v>0.162971</v>
       </c>
       <c r="N4">
-        <v>0.417208382516459</v>
+        <v>0.488913</v>
       </c>
       <c r="O4">
-        <v>0.1110727180630181</v>
+        <v>0.03753569836749389</v>
       </c>
       <c r="P4">
-        <v>0.1110727180630181</v>
+        <v>0.0388561881622672</v>
       </c>
       <c r="Q4">
-        <v>57.52935095739629</v>
+        <v>24.72694962558834</v>
       </c>
       <c r="R4">
-        <v>57.52935095739629</v>
+        <v>222.542546630295</v>
       </c>
       <c r="S4">
-        <v>0.02905573534010518</v>
+        <v>0.0101374141700771</v>
       </c>
       <c r="T4">
-        <v>0.02905573534010518</v>
+        <v>0.01081510123966041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H5">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I5">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J5">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43366081959979</v>
+        <v>0.4426515</v>
       </c>
       <c r="N5">
-        <v>1.43366081959979</v>
+        <v>0.885303</v>
       </c>
       <c r="O5">
-        <v>0.3816812189940141</v>
+        <v>0.1019520846403269</v>
       </c>
       <c r="P5">
-        <v>0.3816812189940141</v>
+        <v>0.07035914354623346</v>
       </c>
       <c r="Q5">
-        <v>108.3923043066815</v>
+        <v>67.1617732123575</v>
       </c>
       <c r="R5">
-        <v>108.3923043066815</v>
+        <v>402.970639274145</v>
       </c>
       <c r="S5">
-        <v>0.05474454438346436</v>
+        <v>0.02753460179115231</v>
       </c>
       <c r="T5">
-        <v>0.05474454438346436</v>
+        <v>0.0195835283021214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H6">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I6">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J6">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.90530413902547</v>
+        <v>1.558708666666667</v>
       </c>
       <c r="N6">
-        <v>1.90530413902547</v>
+        <v>4.676126</v>
       </c>
       <c r="O6">
-        <v>0.5072460629429678</v>
+        <v>0.3590038617594454</v>
       </c>
       <c r="P6">
-        <v>0.5072460629429678</v>
+        <v>0.3716334638810379</v>
       </c>
       <c r="Q6">
-        <v>144.051021839098</v>
+        <v>128.2020280512487</v>
       </c>
       <c r="R6">
-        <v>144.051021839098</v>
+        <v>1153.818252461238</v>
       </c>
       <c r="S6">
-        <v>0.07275431230100519</v>
+        <v>0.05255953829640348</v>
       </c>
       <c r="T6">
-        <v>0.07275431230100519</v>
+        <v>0.05607314826529267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.417208382516459</v>
+        <v>2.177429</v>
       </c>
       <c r="N7">
-        <v>0.417208382516459</v>
+        <v>6.532287</v>
       </c>
       <c r="O7">
-        <v>0.1110727180630181</v>
+        <v>0.5015083552327337</v>
       </c>
       <c r="P7">
-        <v>0.1110727180630181</v>
+        <v>0.5191512044104615</v>
       </c>
       <c r="Q7">
-        <v>31.54314977349124</v>
+        <v>179.091076932659</v>
       </c>
       <c r="R7">
-        <v>31.54314977349124</v>
+        <v>1611.819692393931</v>
       </c>
       <c r="S7">
-        <v>0.01593116203050138</v>
+        <v>0.0734227411193793</v>
       </c>
       <c r="T7">
-        <v>0.01593116203050138</v>
+        <v>0.07833105811572313</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J8">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.43366081959979</v>
+        <v>0.162971</v>
       </c>
       <c r="N8">
-        <v>1.43366081959979</v>
+        <v>0.488913</v>
       </c>
       <c r="O8">
-        <v>0.3816812189940141</v>
+        <v>0.03753569836749389</v>
       </c>
       <c r="P8">
-        <v>0.3816812189940141</v>
+        <v>0.0388561881622672</v>
       </c>
       <c r="Q8">
-        <v>163.3179397283627</v>
+        <v>13.404180755741</v>
       </c>
       <c r="R8">
-        <v>163.3179397283627</v>
+        <v>120.637626801669</v>
       </c>
       <c r="S8">
-        <v>0.08248524890455887</v>
+        <v>0.005495369788390971</v>
       </c>
       <c r="T8">
-        <v>0.08248524890455887</v>
+        <v>0.00586273576414088</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J9">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.90530413902547</v>
+        <v>0.4426515</v>
       </c>
       <c r="N9">
-        <v>1.90530413902547</v>
+        <v>0.885303</v>
       </c>
       <c r="O9">
-        <v>0.5072460629429678</v>
+        <v>0.1019520846403269</v>
       </c>
       <c r="P9">
-        <v>0.5072460629429678</v>
+        <v>0.07035914354623346</v>
       </c>
       <c r="Q9">
-        <v>217.0460002027716</v>
+        <v>36.4075861214565</v>
       </c>
       <c r="R9">
-        <v>217.0460002027716</v>
+        <v>218.445516728739</v>
       </c>
       <c r="S9">
-        <v>0.1096211070274443</v>
+        <v>0.01492617508566521</v>
       </c>
       <c r="T9">
-        <v>0.1096211070274443</v>
+        <v>0.01061599417524429</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H10">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I10">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J10">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.417208382516459</v>
+        <v>1.558708666666667</v>
       </c>
       <c r="N10">
-        <v>0.417208382516459</v>
+        <v>4.676126</v>
       </c>
       <c r="O10">
-        <v>0.1110727180630181</v>
+        <v>0.3590038617594454</v>
       </c>
       <c r="P10">
-        <v>0.1110727180630181</v>
+        <v>0.3716334638810379</v>
       </c>
       <c r="Q10">
-        <v>47.52701094880413</v>
+        <v>192.413732993482</v>
       </c>
       <c r="R10">
-        <v>47.52701094880413</v>
+        <v>1731.723596941338</v>
       </c>
       <c r="S10">
-        <v>0.02400396021601898</v>
+        <v>0.07888468787702904</v>
       </c>
       <c r="T10">
-        <v>0.02400396021601898</v>
+        <v>0.08415813651644387</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H11">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I11">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J11">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.43366081959979</v>
+        <v>2.177429</v>
       </c>
       <c r="N11">
-        <v>1.43366081959979</v>
+        <v>6.532287</v>
       </c>
       <c r="O11">
-        <v>0.3816812189940141</v>
+        <v>0.5015083552327337</v>
       </c>
       <c r="P11">
-        <v>0.3816812189940141</v>
+        <v>0.5191512044104615</v>
       </c>
       <c r="Q11">
-        <v>216.3423192966451</v>
+        <v>268.791244430709</v>
       </c>
       <c r="R11">
-        <v>216.3423192966451</v>
+        <v>2419.121199876381</v>
       </c>
       <c r="S11">
-        <v>0.109265706421805</v>
+        <v>0.110197505610023</v>
       </c>
       <c r="T11">
-        <v>0.109265706421805</v>
+        <v>0.1175642189946532</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H12">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I12">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J12">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.90530413902547</v>
+        <v>0.162971</v>
       </c>
       <c r="N12">
-        <v>1.90530413902547</v>
+        <v>0.488913</v>
       </c>
       <c r="O12">
-        <v>0.5072460629429678</v>
+        <v>0.03753569836749389</v>
       </c>
       <c r="P12">
-        <v>0.5072460629429678</v>
+        <v>0.0388561881622672</v>
       </c>
       <c r="Q12">
-        <v>287.514250767719</v>
+        <v>20.117844437691</v>
       </c>
       <c r="R12">
-        <v>287.514250767719</v>
+        <v>181.060599939219</v>
       </c>
       <c r="S12">
-        <v>0.1452117543095877</v>
+        <v>0.008247799439968449</v>
       </c>
       <c r="T12">
-        <v>0.1452117543095877</v>
+        <v>0.008799165591060662</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H13">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I13">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J13">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.417208382516459</v>
+        <v>0.4426515</v>
       </c>
       <c r="N13">
-        <v>0.417208382516459</v>
+        <v>0.885303</v>
       </c>
       <c r="O13">
-        <v>0.1110727180630181</v>
+        <v>0.1019520846403269</v>
       </c>
       <c r="P13">
-        <v>0.1110727180630181</v>
+        <v>0.07035914354623346</v>
       </c>
       <c r="Q13">
-        <v>62.95758931935438</v>
+        <v>54.6428138571315</v>
       </c>
       <c r="R13">
-        <v>62.95758931935438</v>
+        <v>327.856883142789</v>
       </c>
       <c r="S13">
-        <v>0.03179731775991836</v>
+        <v>0.0224021500377441</v>
       </c>
       <c r="T13">
-        <v>0.03179731775991836</v>
+        <v>0.01593315721869285</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.8078372759574</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H14">
-        <v>48.8078372759574</v>
+        <v>463.02893</v>
       </c>
       <c r="I14">
-        <v>0.09259287875389165</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J14">
-        <v>0.09259287875389165</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.43366081959979</v>
+        <v>1.558708666666667</v>
       </c>
       <c r="N14">
-        <v>1.43366081959979</v>
+        <v>4.676126</v>
       </c>
       <c r="O14">
-        <v>0.3816812189940141</v>
+        <v>0.3590038617594454</v>
       </c>
       <c r="P14">
-        <v>0.3816812189940141</v>
+        <v>0.3716334638810379</v>
       </c>
       <c r="Q14">
-        <v>69.97388399194226</v>
+        <v>240.5757353694644</v>
       </c>
       <c r="R14">
-        <v>69.97388399194226</v>
+        <v>2165.18161832518</v>
       </c>
       <c r="S14">
-        <v>0.03534096283295031</v>
+        <v>0.09862987168410586</v>
       </c>
       <c r="T14">
-        <v>0.03534096283295031</v>
+        <v>0.105223287676941</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.8078372759574</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H15">
-        <v>48.8078372759574</v>
+        <v>463.02893</v>
       </c>
       <c r="I15">
-        <v>0.09259287875389165</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J15">
-        <v>0.09259287875389165</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.90530413902547</v>
+        <v>2.177429</v>
       </c>
       <c r="N15">
-        <v>1.90530413902547</v>
+        <v>6.532287</v>
       </c>
       <c r="O15">
-        <v>0.5072460629429678</v>
+        <v>0.5015083552327337</v>
       </c>
       <c r="P15">
-        <v>0.5072460629429678</v>
+        <v>0.5191512044104615</v>
       </c>
       <c r="Q15">
-        <v>92.99377437876325</v>
+        <v>336.0708733403233</v>
       </c>
       <c r="R15">
-        <v>92.99377437876325</v>
+        <v>3024.63786006291</v>
       </c>
       <c r="S15">
-        <v>0.04696737320446711</v>
+        <v>0.1377804252096186</v>
       </c>
       <c r="T15">
-        <v>0.04696737320446711</v>
+        <v>0.1469910593062167</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H16">
+        <v>463.02893</v>
+      </c>
+      <c r="I16">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J16">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.162971</v>
+      </c>
+      <c r="N16">
+        <v>0.488913</v>
+      </c>
+      <c r="O16">
+        <v>0.03753569836749389</v>
+      </c>
+      <c r="P16">
+        <v>0.0388561881622672</v>
+      </c>
+      <c r="Q16">
+        <v>25.15342925034333</v>
+      </c>
+      <c r="R16">
+        <v>226.38086325309</v>
+      </c>
+      <c r="S16">
+        <v>0.01031225986098134</v>
+      </c>
+      <c r="T16">
+        <v>0.01100163538108174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H17">
+        <v>463.02893</v>
+      </c>
+      <c r="I17">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J17">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4426515</v>
+      </c>
+      <c r="N17">
+        <v>0.885303</v>
+      </c>
+      <c r="O17">
+        <v>0.1019520846403269</v>
+      </c>
+      <c r="P17">
+        <v>0.07035914354623346</v>
+      </c>
+      <c r="Q17">
+        <v>68.32015013596499</v>
+      </c>
+      <c r="R17">
+        <v>409.92090081579</v>
+      </c>
+      <c r="S17">
+        <v>0.0280095065738885</v>
+      </c>
+      <c r="T17">
+        <v>0.01992129644288004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="H16">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="I16">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="J16">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.417208382516459</v>
-      </c>
-      <c r="N16">
-        <v>0.417208382516459</v>
-      </c>
-      <c r="O16">
-        <v>0.1110727180630181</v>
-      </c>
-      <c r="P16">
-        <v>0.1110727180630181</v>
-      </c>
-      <c r="Q16">
-        <v>20.36303884402872</v>
-      </c>
-      <c r="R16">
-        <v>20.36303884402872</v>
-      </c>
-      <c r="S16">
-        <v>0.01028454271647423</v>
-      </c>
-      <c r="T16">
-        <v>0.01028454271647423</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>50.0323125</v>
+      </c>
+      <c r="H18">
+        <v>100.064625</v>
+      </c>
+      <c r="I18">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J18">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.558708666666667</v>
+      </c>
+      <c r="N18">
+        <v>4.676126</v>
+      </c>
+      <c r="O18">
+        <v>0.3590038617594454</v>
+      </c>
+      <c r="P18">
+        <v>0.3716334638810379</v>
+      </c>
+      <c r="Q18">
+        <v>77.985799107125</v>
+      </c>
+      <c r="R18">
+        <v>467.9147946427501</v>
+      </c>
+      <c r="S18">
+        <v>0.03197217436457428</v>
+      </c>
+      <c r="T18">
+        <v>0.02273967810750015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>50.0323125</v>
+      </c>
+      <c r="H19">
+        <v>100.064625</v>
+      </c>
+      <c r="I19">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J19">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.177429</v>
+      </c>
+      <c r="N19">
+        <v>6.532287</v>
+      </c>
+      <c r="O19">
+        <v>0.5015083552327337</v>
+      </c>
+      <c r="P19">
+        <v>0.5191512044104615</v>
+      </c>
+      <c r="Q19">
+        <v>108.9418081745625</v>
+      </c>
+      <c r="R19">
+        <v>653.650849047375</v>
+      </c>
+      <c r="S19">
+        <v>0.04466334289611568</v>
+      </c>
+      <c r="T19">
+        <v>0.03176606098420099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>50.0323125</v>
+      </c>
+      <c r="H20">
+        <v>100.064625</v>
+      </c>
+      <c r="I20">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J20">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.162971</v>
+      </c>
+      <c r="N20">
+        <v>0.488913</v>
+      </c>
+      <c r="O20">
+        <v>0.03753569836749389</v>
+      </c>
+      <c r="P20">
+        <v>0.0388561881622672</v>
+      </c>
+      <c r="Q20">
+        <v>8.153816000437502</v>
+      </c>
+      <c r="R20">
+        <v>48.92289600262501</v>
+      </c>
+      <c r="S20">
+        <v>0.003342855108076024</v>
+      </c>
+      <c r="T20">
+        <v>0.002377550186323513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>50.0323125</v>
+      </c>
+      <c r="H21">
+        <v>100.064625</v>
+      </c>
+      <c r="I21">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J21">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4426515</v>
+      </c>
+      <c r="N21">
+        <v>0.885303</v>
+      </c>
+      <c r="O21">
+        <v>0.1019520846403269</v>
+      </c>
+      <c r="P21">
+        <v>0.07035914354623346</v>
+      </c>
+      <c r="Q21">
+        <v>22.14687817659375</v>
+      </c>
+      <c r="R21">
+        <v>88.58751270637499</v>
+      </c>
+      <c r="S21">
+        <v>0.0090796511518768</v>
+      </c>
+      <c r="T21">
+        <v>0.004305167407294886</v>
       </c>
     </row>
   </sheetData>
